--- a/MainProject/src/main/res/bumps/simple.xlsx
+++ b/MainProject/src/main/res/bumps/simple.xlsx
@@ -448,22 +448,22 @@
         <v>100019.53125</v>
       </c>
       <c r="C2">
-        <v>28656.134765625</v>
+        <v>31692.271484375</v>
       </c>
       <c r="D2">
-        <v>28664.42280680801</v>
+        <v>30878.59285917377</v>
       </c>
       <c r="E2">
-        <v>1432.80673828125</v>
+        <v>1584.61357421875</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>32143.78630336549</v>
+        <v>42322.21652556181</v>
       </c>
       <c r="H2">
-        <v>3854.761890032356</v>
+        <v>13540.24721240436</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -474,22 +474,22 @@
         <v>79511.71875</v>
       </c>
       <c r="C3">
-        <v>29591.62109375</v>
+        <v>33546.24609375</v>
       </c>
       <c r="D3">
-        <v>29561.1865825358</v>
+        <v>32799.87926346668</v>
       </c>
       <c r="E3">
-        <v>1479.5810546875</v>
+        <v>1677.3123046875</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>1.014647183849011E+190</v>
+        <v>5.291588483002259E+261</v>
       </c>
       <c r="H3">
-        <v>3.213179287609418E+213</v>
+        <v>1.263270985425703E+229</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -500,22 +500,22 @@
         <v>63105.46875</v>
       </c>
       <c r="C4">
-        <v>30487.845703125</v>
+        <v>35255.8671875</v>
       </c>
       <c r="D4">
-        <v>30300.18232859775</v>
+        <v>34526.02409555997</v>
       </c>
       <c r="E4">
-        <v>1524.39228515625</v>
+        <v>1762.793359375</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>-0.8130360636968221</v>
+        <v>-0.7152975214257861</v>
       </c>
       <c r="H4">
-        <v>0.3381737942140536</v>
+        <v>0.296648031740455</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -526,22 +526,22 @@
         <v>50214.84375</v>
       </c>
       <c r="C5">
-        <v>31013.537109375</v>
+        <v>36545.60546875</v>
       </c>
       <c r="D5">
-        <v>30902.10700109659</v>
+        <v>36030.33157426408</v>
       </c>
       <c r="E5">
-        <v>1550.67685546875</v>
+        <v>1827.2802734375</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>-0.5190038247630668</v>
+        <v>-0.5108421899532725</v>
       </c>
       <c r="H5">
-        <v>0.132440489423793</v>
+        <v>0.179631541363796</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -552,22 +552,22 @@
         <v>39902.34375</v>
       </c>
       <c r="C6">
-        <v>31436.140625</v>
+        <v>38095.5625</v>
       </c>
       <c r="D6">
-        <v>31407.95823859637</v>
+        <v>37354.80634384815</v>
       </c>
       <c r="E6">
-        <v>1571.80703125</v>
+        <v>1904.778125</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6">
-        <v>6084135542.355666</v>
+        <v>1145123923.401051</v>
       </c>
       <c r="H6">
-        <v>9.328164232786714E+150</v>
+        <v>4.526758435665879E+145</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -578,22 +578,22 @@
         <v>31699.21875</v>
       </c>
       <c r="C7">
-        <v>31875.818359375</v>
+        <v>39112.66796875</v>
       </c>
       <c r="D7">
-        <v>31839.23689217654</v>
+        <v>38511.78645123129</v>
       </c>
       <c r="E7">
-        <v>1593.79091796875</v>
+        <v>1955.6333984375</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7">
-        <v>798362.204361558</v>
+        <v>949450.6928718254</v>
       </c>
       <c r="H7">
-        <v>433915.3604486513</v>
+        <v>433272.9190574819</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -604,13 +604,13 @@
         <v>25136.71875</v>
       </c>
       <c r="C8">
-        <v>32281.416015625</v>
+        <v>40036.734375</v>
       </c>
       <c r="D8">
-        <v>32218.81890924945</v>
+        <v>39531.10728997088</v>
       </c>
       <c r="E8">
-        <v>1614.07080078125</v>
+        <v>2001.83671875</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -621,13 +621,13 @@
         <v>19980.46875</v>
       </c>
       <c r="C9">
-        <v>32656.470703125</v>
+        <v>41069.51953125</v>
       </c>
       <c r="D9">
-        <v>32556.93248315849</v>
+        <v>40419.53907546476</v>
       </c>
       <c r="E9">
-        <v>1632.82353515625</v>
+        <v>2053.4759765625</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -638,13 +638,13 @@
         <v>15878.90625</v>
       </c>
       <c r="C10">
-        <v>32938.453125</v>
+        <v>41868.234375</v>
       </c>
       <c r="D10">
-        <v>32871.64454981152</v>
+        <v>41212.47761074566</v>
       </c>
       <c r="E10">
-        <v>1646.92265625</v>
+        <v>2093.41171875</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -655,13 +655,13 @@
         <v>12597.65625</v>
       </c>
       <c r="C11">
-        <v>33312.875</v>
+        <v>42316.24609375</v>
       </c>
       <c r="D11">
-        <v>33176.1968613027</v>
+        <v>41936.16992328194</v>
       </c>
       <c r="E11">
-        <v>1665.64375</v>
+        <v>2115.8123046875</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -672,13 +672,13 @@
         <v>10019.53125</v>
       </c>
       <c r="C12">
-        <v>33476.4375</v>
+        <v>42911.01171875</v>
       </c>
       <c r="D12">
-        <v>33474.5978122701</v>
+        <v>42597.60820186265</v>
       </c>
       <c r="E12">
-        <v>1673.821875</v>
+        <v>2145.5505859375</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -689,13 +689,13 @@
         <v>7928.24072265625</v>
       </c>
       <c r="C13">
-        <v>33735.3359375</v>
+        <v>43519.72265625</v>
       </c>
       <c r="D13">
-        <v>33785.25018260952</v>
+        <v>43236.29034407887</v>
       </c>
       <c r="E13">
-        <v>1686.766796875</v>
+        <v>2175.9861328125</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -706,13 +706,13 @@
         <v>6307.87060546875</v>
       </c>
       <c r="C14">
-        <v>34029.33203125</v>
+        <v>44062.8828125</v>
       </c>
       <c r="D14">
-        <v>34101.45966425588</v>
+        <v>43839.39265161508</v>
       </c>
       <c r="E14">
-        <v>1701.4666015625</v>
+        <v>2203.144140625</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -723,13 +723,13 @@
         <v>5034.72216796875</v>
       </c>
       <c r="C15">
-        <v>34428.8203125</v>
+        <v>44434.69140625</v>
       </c>
       <c r="D15">
-        <v>34432.25531004257</v>
+        <v>44428.05353543321</v>
       </c>
       <c r="E15">
-        <v>1721.441015625</v>
+        <v>2221.7345703125</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -740,13 +740,13 @@
         <v>3993.0556640625</v>
       </c>
       <c r="C16">
-        <v>34815.55859375</v>
+        <v>44966.13671875</v>
       </c>
       <c r="D16">
-        <v>34798.61385862029</v>
+        <v>45040.33775132292</v>
       </c>
       <c r="E16">
-        <v>1740.7779296875</v>
+        <v>2248.3068359375</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -757,13 +757,13 @@
         <v>3144.054931640625</v>
       </c>
       <c r="C17">
-        <v>35200.84375</v>
+        <v>45750.00390625</v>
       </c>
       <c r="D17">
-        <v>35211.30180988351</v>
+        <v>45692.5851910934</v>
       </c>
       <c r="E17">
-        <v>1760.0421875</v>
+        <v>2287.5001953125</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -774,13 +774,13 @@
         <v>2519.53125</v>
       </c>
       <c r="C18">
-        <v>35593.2734375</v>
+        <v>46412.2109375</v>
       </c>
       <c r="D18">
-        <v>35631.69336704383</v>
+        <v>46327.25874816749</v>
       </c>
       <c r="E18">
-        <v>1779.663671875</v>
+        <v>2320.610546875</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -791,13 +791,13 @@
         <v>2000.76220703125</v>
       </c>
       <c r="C19">
-        <v>36066.53125</v>
+        <v>47126.5390625</v>
       </c>
       <c r="D19">
-        <v>36115.24377586805</v>
+        <v>47030.77310043827</v>
       </c>
       <c r="E19">
-        <v>1803.3265625</v>
+        <v>2356.326953125</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -808,13 +808,13 @@
         <v>1580.668579101562</v>
       </c>
       <c r="C20">
-        <v>36585.70703125</v>
+        <v>47864.90234375</v>
       </c>
       <c r="D20">
-        <v>36665.73912824195</v>
+        <v>47807.32675352909</v>
       </c>
       <c r="E20">
-        <v>1829.2853515625</v>
+        <v>2393.2451171875</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -825,13 +825,13 @@
         <v>1253.633666992188</v>
       </c>
       <c r="C21">
-        <v>37162.9140625</v>
+        <v>48597.43359375</v>
       </c>
       <c r="D21">
-        <v>37271.03991623742</v>
+        <v>48640.34875482067</v>
       </c>
       <c r="E21">
-        <v>1858.145703125</v>
+        <v>2429.8716796875</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -842,13 +842,13 @@
         <v>1000.702270507812</v>
       </c>
       <c r="C22">
-        <v>37847.85546875</v>
+        <v>49395.921875</v>
       </c>
       <c r="D22">
-        <v>37928.95100716933</v>
+        <v>49528.54553273231</v>
       </c>
       <c r="E22">
-        <v>1892.3927734375</v>
+        <v>2469.79609375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -859,13 +859,13 @@
         <v>790.028076171875</v>
       </c>
       <c r="C23">
-        <v>38579.5703125</v>
+        <v>50298.98046875</v>
       </c>
       <c r="D23">
-        <v>38702.98763227898</v>
+        <v>50557.52064506988</v>
       </c>
       <c r="E23">
-        <v>1928.978515625</v>
+        <v>2514.9490234375</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -876,13 +876,13 @@
         <v>628.8109741210938</v>
       </c>
       <c r="C24">
-        <v>39393.13671875</v>
+        <v>51238.9921875</v>
       </c>
       <c r="D24">
-        <v>39542.85891695318</v>
+        <v>51660.31588818404</v>
       </c>
       <c r="E24">
-        <v>1969.6568359375</v>
+        <v>2561.949609375</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -893,13 +893,13 @@
         <v>502.2321472167969</v>
       </c>
       <c r="C25">
-        <v>38963.546875</v>
+        <v>50638.5859375</v>
       </c>
       <c r="D25">
-        <v>40470.59416628628</v>
+        <v>52866.78817504746</v>
       </c>
       <c r="E25">
-        <v>1948.17734375</v>
+        <v>2531.929296875</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -910,13 +910,13 @@
         <v>400.1524353027344</v>
       </c>
       <c r="C26">
-        <v>40235.046875</v>
+        <v>52182.24609375</v>
       </c>
       <c r="D26">
-        <v>41523.05307439485</v>
+        <v>54224.8179199614</v>
       </c>
       <c r="E26">
-        <v>2011.75234375</v>
+        <v>2609.1123046875</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -927,13 +927,13 @@
         <v>315.5048217773437</v>
       </c>
       <c r="C27">
-        <v>41591.72265625</v>
+        <v>54107.234375</v>
       </c>
       <c r="D27">
-        <v>42763.28397133378</v>
+        <v>55814.66036183563</v>
       </c>
       <c r="E27">
-        <v>2079.5861328125</v>
+        <v>2705.36171875</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -944,13 +944,13 @@
         <v>252.016128540039</v>
       </c>
       <c r="C28">
-        <v>43023.859375</v>
+        <v>55713.08984375</v>
       </c>
       <c r="D28">
-        <v>44083.64172093954</v>
+        <v>57498.08856482735</v>
       </c>
       <c r="E28">
-        <v>2151.19296875</v>
+        <v>2785.6544921875</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -961,13 +961,13 @@
         <v>200.3205108642578</v>
       </c>
       <c r="C29">
-        <v>44392.6015625</v>
+        <v>57511.98046875</v>
       </c>
       <c r="D29">
-        <v>45600.37752565968</v>
+        <v>59423.24285352886</v>
       </c>
       <c r="E29">
-        <v>2219.630078125</v>
+        <v>2875.5990234375</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -978,13 +978,13 @@
         <v>158.005615234375</v>
       </c>
       <c r="C30">
-        <v>46454.93359375</v>
+        <v>60075.91015625</v>
       </c>
       <c r="D30">
-        <v>47369.00080673627</v>
+        <v>61659.24734021875</v>
       </c>
       <c r="E30">
-        <v>2322.7466796875</v>
+        <v>3003.7955078125</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -995,13 +995,13 @@
         <v>125.5580368041992</v>
       </c>
       <c r="C31">
-        <v>48008.7578125</v>
+        <v>62700.3046875</v>
       </c>
       <c r="D31">
-        <v>49302.16312911025</v>
+        <v>64094.8438084925</v>
       </c>
       <c r="E31">
-        <v>2400.437890625</v>
+        <v>3135.015234375</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1012,13 +1012,13 @@
         <v>99.73403930664062</v>
       </c>
       <c r="C32">
-        <v>49495.69921875</v>
+        <v>64428.23046875</v>
       </c>
       <c r="D32">
-        <v>51483.58849931745</v>
+        <v>66834.90716872274</v>
       </c>
       <c r="E32">
-        <v>2474.7849609375</v>
+        <v>3221.4115234375</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1029,13 +1029,13 @@
         <v>79.44915008544922</v>
       </c>
       <c r="C33">
-        <v>50684.734375</v>
+        <v>65793.84375</v>
       </c>
       <c r="D33">
-        <v>53908.86596757125</v>
+        <v>69872.94108136339</v>
       </c>
       <c r="E33">
-        <v>2534.23671875</v>
+        <v>3289.6921875</v>
       </c>
     </row>
   </sheetData>
@@ -1082,22 +1082,22 @@
         <v>100019.53125</v>
       </c>
       <c r="C2">
-        <v>7501.52685546875</v>
+        <v>12244.9599609375</v>
       </c>
       <c r="D2">
-        <v>7394.363252551851</v>
+        <v>12271.85729352746</v>
       </c>
       <c r="E2">
-        <v>375.0763427734375</v>
+        <v>612.2479980468751</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>32143.78630336549</v>
+        <v>42322.21652556181</v>
       </c>
       <c r="H2">
-        <v>3854.761890032356</v>
+        <v>13540.24721240436</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1108,22 +1108,22 @@
         <v>79511.71875</v>
       </c>
       <c r="C3">
-        <v>6691.06005859375</v>
+        <v>11399.4755859375</v>
       </c>
       <c r="D3">
-        <v>6545.316674249307</v>
+        <v>11509.9701656779</v>
       </c>
       <c r="E3">
-        <v>334.5530029296875</v>
+        <v>569.973779296875</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>1.014647183849011E+190</v>
+        <v>5.291588483002259E+261</v>
       </c>
       <c r="H3">
-        <v>3.213179287609418E+213</v>
+        <v>1.263270985425703E+229</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1134,22 +1134,22 @@
         <v>63105.46875</v>
       </c>
       <c r="C4">
-        <v>5937.5654296875</v>
+        <v>10763.853515625</v>
       </c>
       <c r="D4">
-        <v>5780.849940999558</v>
+        <v>10685.85264756207</v>
       </c>
       <c r="E4">
-        <v>296.878271484375</v>
+        <v>538.19267578125</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>-0.8130360636968221</v>
+        <v>-0.7152975214257861</v>
       </c>
       <c r="H4">
-        <v>0.3381737942140536</v>
+        <v>0.296648031740455</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1160,22 +1160,22 @@
         <v>50214.84375</v>
       </c>
       <c r="C5">
-        <v>5206.517578125</v>
+        <v>9988.0673828125</v>
       </c>
       <c r="D5">
-        <v>5125.159302805664</v>
+        <v>9860.448755471154</v>
       </c>
       <c r="E5">
-        <v>260.32587890625</v>
+        <v>499.403369140625</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>-0.5190038247630668</v>
+        <v>-0.5108421899532725</v>
       </c>
       <c r="H5">
-        <v>0.132440489423793</v>
+        <v>0.179631541363796</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1186,22 +1186,22 @@
         <v>39902.34375</v>
       </c>
       <c r="C6">
-        <v>4772.04296875</v>
+        <v>9311.80859375</v>
       </c>
       <c r="D6">
-        <v>4568.632588034399</v>
+        <v>9057.134017785696</v>
       </c>
       <c r="E6">
-        <v>238.6021484375</v>
+        <v>465.5904296875</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6">
-        <v>6084135542.355666</v>
+        <v>1145123923.401051</v>
       </c>
       <c r="H6">
-        <v>9.328164232786714E+150</v>
+        <v>4.526758435665879E+145</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1212,22 +1212,22 @@
         <v>31699.21875</v>
       </c>
       <c r="C7">
-        <v>4237.41796875</v>
+        <v>8545.9404296875</v>
       </c>
       <c r="D7">
-        <v>4112.546755552216</v>
+        <v>8308.863010133638</v>
       </c>
       <c r="E7">
-        <v>211.8708984375</v>
+        <v>427.297021484375</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7">
-        <v>798362.204361558</v>
+        <v>949450.6928718254</v>
       </c>
       <c r="H7">
-        <v>433915.3604486513</v>
+        <v>433272.9190574819</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1238,13 +1238,13 @@
         <v>25136.71875</v>
       </c>
       <c r="C8">
-        <v>3805.07275390625</v>
+        <v>7937.220703125</v>
       </c>
       <c r="D8">
-        <v>3749.783088365395</v>
+        <v>7631.942802223503</v>
       </c>
       <c r="E8">
-        <v>190.2536376953125</v>
+        <v>396.86103515625</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1255,13 +1255,13 @@
         <v>19980.46875</v>
       </c>
       <c r="C9">
-        <v>3544.899658203125</v>
+        <v>7426.907226562499</v>
       </c>
       <c r="D9">
-        <v>3480.028801441555</v>
+        <v>7051.424037869933</v>
       </c>
       <c r="E9">
-        <v>177.2449829101563</v>
+        <v>371.345361328125</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1272,13 +1272,13 @@
         <v>15878.90625</v>
       </c>
       <c r="C10">
-        <v>3296.485595703125</v>
+        <v>6920.74072265625</v>
       </c>
       <c r="D10">
-        <v>3292.365103756654</v>
+        <v>6566.8811421839</v>
       </c>
       <c r="E10">
-        <v>164.8242797851562</v>
+        <v>346.0370361328125</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1289,13 +1289,13 @@
         <v>12597.65625</v>
       </c>
       <c r="C11">
-        <v>3263.187255859375</v>
+        <v>6304.966796875</v>
       </c>
       <c r="D11">
-        <v>3180.452394933704</v>
+        <v>6179.688843880512</v>
       </c>
       <c r="E11">
-        <v>163.1593627929688</v>
+        <v>315.24833984375</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1306,13 +1306,13 @@
         <v>10019.53125</v>
       </c>
       <c r="C12">
-        <v>3131.4052734375</v>
+        <v>5977.0048828125</v>
       </c>
       <c r="D12">
-        <v>3140.831829287874</v>
+        <v>5897.154000637854</v>
       </c>
       <c r="E12">
-        <v>156.570263671875</v>
+        <v>298.850244140625</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1323,13 +1323,13 @@
         <v>7928.24072265625</v>
       </c>
       <c r="C13">
-        <v>3056.395263671875</v>
+        <v>5666.52587890625</v>
       </c>
       <c r="D13">
-        <v>3169.296671327756</v>
+        <v>5710.865445227897</v>
       </c>
       <c r="E13">
-        <v>152.8197631835938</v>
+        <v>283.3262939453125</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1340,13 +1340,13 @@
         <v>6307.87060546875</v>
       </c>
       <c r="C14">
-        <v>3159.119384765625</v>
+        <v>5498.8662109375</v>
       </c>
       <c r="D14">
-        <v>3261.63209534744</v>
+        <v>5627.751871429844</v>
       </c>
       <c r="E14">
-        <v>157.9559692382813</v>
+        <v>274.943310546875</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1357,13 +1357,13 @@
         <v>5034.72216796875</v>
       </c>
       <c r="C15">
-        <v>3454.986083984375</v>
+        <v>5608.7177734375</v>
       </c>
       <c r="D15">
-        <v>3413.643643164812</v>
+        <v>5640.245857210813</v>
       </c>
       <c r="E15">
-        <v>172.7493041992188</v>
+        <v>280.435888671875</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1374,13 +1374,13 @@
         <v>3993.0556640625</v>
       </c>
       <c r="C16">
-        <v>3711.646484375</v>
+        <v>5750.34765625</v>
       </c>
       <c r="D16">
-        <v>3632.7763427749</v>
+        <v>5750.211586603111</v>
       </c>
       <c r="E16">
-        <v>185.58232421875</v>
+        <v>287.5173828125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1391,13 +1391,13 @@
         <v>3144.054931640625</v>
       </c>
       <c r="C17">
-        <v>3967.121337890625</v>
+        <v>5941.69677734375</v>
       </c>
       <c r="D17">
-        <v>3926.483301558329</v>
+        <v>5966.964889552207</v>
       </c>
       <c r="E17">
-        <v>198.3560668945313</v>
+        <v>297.0848388671875</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1408,13 +1408,13 @@
         <v>2519.53125</v>
       </c>
       <c r="C18">
-        <v>4272.029296875</v>
+        <v>6190.64111328125</v>
       </c>
       <c r="D18">
-        <v>4261.99876531174</v>
+        <v>6262.657897467097</v>
       </c>
       <c r="E18">
-        <v>213.60146484375</v>
+        <v>309.5320556640625</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1425,13 +1425,13 @@
         <v>2000.76220703125</v>
       </c>
       <c r="C19">
-        <v>4700.92626953125</v>
+        <v>6592.07421875</v>
       </c>
       <c r="D19">
-        <v>4679.453518102276</v>
+        <v>6670.048021882749</v>
       </c>
       <c r="E19">
-        <v>235.0463134765625</v>
+        <v>329.6037109375</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1442,13 +1442,13 @@
         <v>1580.668579101562</v>
       </c>
       <c r="C20">
-        <v>5182.376953125</v>
+        <v>7051.88427734375</v>
       </c>
       <c r="D20">
-        <v>5182.829992603073</v>
+        <v>7195.642704072528</v>
       </c>
       <c r="E20">
-        <v>259.11884765625</v>
+        <v>352.5942138671875</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1459,13 +1459,13 @@
         <v>1253.633666992188</v>
       </c>
       <c r="C21">
-        <v>5738.49267578125</v>
+        <v>7594.723632812499</v>
       </c>
       <c r="D21">
-        <v>5759.565130921386</v>
+        <v>7825.970570146415</v>
       </c>
       <c r="E21">
-        <v>286.9246337890625</v>
+        <v>379.736181640625</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1476,13 +1476,13 @@
         <v>1000.702270507812</v>
       </c>
       <c r="C22">
-        <v>6455.70458984375</v>
+        <v>8263.0205078125</v>
       </c>
       <c r="D22">
-        <v>6404.875969812224</v>
+        <v>8553.57561763826</v>
       </c>
       <c r="E22">
-        <v>322.7852294921875</v>
+        <v>413.151025390625</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1493,13 +1493,13 @@
         <v>790.028076171875</v>
       </c>
       <c r="C23">
-        <v>7197.6484375</v>
+        <v>9058.166015625</v>
       </c>
       <c r="D23">
-        <v>7180.411344811417</v>
+        <v>9447.836320163748</v>
       </c>
       <c r="E23">
-        <v>359.882421875</v>
+        <v>452.90830078125</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1510,13 +1510,13 @@
         <v>628.8109741210938</v>
       </c>
       <c r="C24">
-        <v>8033.481445312499</v>
+        <v>9963.763671875</v>
       </c>
       <c r="D24">
-        <v>8035.116372985663</v>
+        <v>10449.43828832114</v>
       </c>
       <c r="E24">
-        <v>401.674072265625</v>
+        <v>498.18818359375</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1527,13 +1527,13 @@
         <v>502.2321472167969</v>
       </c>
       <c r="C25">
-        <v>10421.8076171875</v>
+        <v>13006.60546875</v>
       </c>
       <c r="D25">
-        <v>8989.774551663111</v>
+        <v>11580.89725630831</v>
       </c>
       <c r="E25">
-        <v>521.090380859375</v>
+        <v>650.3302734375001</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1544,13 +1544,13 @@
         <v>400.1524353027344</v>
       </c>
       <c r="C26">
-        <v>11160.533203125</v>
+        <v>13868.2236328125</v>
       </c>
       <c r="D26">
-        <v>10081.63505873086</v>
+        <v>12885.46839602159</v>
       </c>
       <c r="E26">
-        <v>558.02666015625</v>
+        <v>693.411181640625</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1561,13 +1561,13 @@
         <v>315.5048217773437</v>
       </c>
       <c r="C27">
-        <v>12082.5</v>
+        <v>15309.0595703125</v>
       </c>
       <c r="D27">
-        <v>11376.23445363028</v>
+        <v>14441.32053927003</v>
       </c>
       <c r="E27">
-        <v>604.125</v>
+        <v>765.4529785156251</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1578,13 +1578,13 @@
         <v>252.016128540039</v>
       </c>
       <c r="C28">
-        <v>13280.5712890625</v>
+        <v>16544.328125</v>
       </c>
       <c r="D28">
-        <v>12760.66145540903</v>
+        <v>16111.69146594167</v>
       </c>
       <c r="E28">
-        <v>664.028564453125</v>
+        <v>827.2164062500001</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1595,13 +1595,13 @@
         <v>200.3205108642578</v>
       </c>
       <c r="C29">
-        <v>14418.2060546875</v>
+        <v>18141.470703125</v>
       </c>
       <c r="D29">
-        <v>14356.1473473265</v>
+        <v>18041.52989218722</v>
       </c>
       <c r="E29">
-        <v>720.910302734375</v>
+        <v>907.07353515625</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1612,13 +1612,13 @@
         <v>158.005615234375</v>
       </c>
       <c r="C30">
-        <v>16526.259765625</v>
+        <v>20752.765625</v>
       </c>
       <c r="D30">
-        <v>16221.14791920837</v>
+        <v>20300.74971591462</v>
       </c>
       <c r="E30">
-        <v>826.31298828125</v>
+        <v>1037.63828125</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1629,13 +1629,13 @@
         <v>125.5580368041992</v>
       </c>
       <c r="C31">
-        <v>18058.515625</v>
+        <v>23594.3046875</v>
       </c>
       <c r="D31">
-        <v>18263.30334138263</v>
+        <v>22776.26104181602</v>
       </c>
       <c r="E31">
-        <v>902.92578125</v>
+        <v>1179.715234375</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1646,13 +1646,13 @@
         <v>99.73403930664062</v>
       </c>
       <c r="C32">
-        <v>19554.978515625</v>
+        <v>25309.533203125</v>
       </c>
       <c r="D32">
-        <v>20570.69841001428</v>
+        <v>25573.46998880911</v>
       </c>
       <c r="E32">
-        <v>977.74892578125</v>
+        <v>1265.47666015625</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1663,13 +1663,13 @@
         <v>79.44915008544922</v>
       </c>
       <c r="C33">
-        <v>20297.40234375</v>
+        <v>25863.974609375</v>
       </c>
       <c r="D33">
-        <v>23138.45517633584</v>
+        <v>28685.08182301785</v>
       </c>
       <c r="E33">
-        <v>1014.8701171875</v>
+        <v>1293.19873046875</v>
       </c>
     </row>
   </sheetData>
